--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H2">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>21.75550513602852</v>
+        <v>63.127410921255</v>
       </c>
       <c r="R2">
-        <v>21.75550513602852</v>
+        <v>568.146698291295</v>
       </c>
       <c r="S2">
-        <v>0.0006282166487706583</v>
+        <v>0.001651016930708333</v>
       </c>
       <c r="T2">
-        <v>0.0006282166487706583</v>
+        <v>0.001651016930708333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H3">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>330.4298648097395</v>
+        <v>450.5584834442849</v>
       </c>
       <c r="R3">
-        <v>330.4298648097395</v>
+        <v>4055.026350998565</v>
       </c>
       <c r="S3">
-        <v>0.009541563895050535</v>
+        <v>0.01178378256901267</v>
       </c>
       <c r="T3">
-        <v>0.009541563895050535</v>
+        <v>0.01178378256901267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H4">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>293.9737605361443</v>
+        <v>440.60304924999</v>
       </c>
       <c r="R4">
-        <v>293.9737605361443</v>
+        <v>3965.42744324991</v>
       </c>
       <c r="S4">
-        <v>0.008488849581556435</v>
+        <v>0.01152341088312432</v>
       </c>
       <c r="T4">
-        <v>0.008488849581556435</v>
+        <v>0.01152341088312432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H5">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>367.2663112281871</v>
+        <v>503.470438817325</v>
       </c>
       <c r="R5">
-        <v>367.2663112281871</v>
+        <v>4531.233949355926</v>
       </c>
       <c r="S5">
-        <v>0.01060526105018088</v>
+        <v>0.01316762728690778</v>
       </c>
       <c r="T5">
-        <v>0.01060526105018088</v>
+        <v>0.01316762728690778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H6">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>140.4821625160045</v>
+        <v>191.268283885815</v>
       </c>
       <c r="R6">
-        <v>140.4821625160045</v>
+        <v>1721.414554972335</v>
       </c>
       <c r="S6">
-        <v>0.004056593160951538</v>
+        <v>0.005002378054074175</v>
       </c>
       <c r="T6">
-        <v>0.004056593160951538</v>
+        <v>0.005002378054074175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H7">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>89.4162962837017</v>
+        <v>128.52115082826</v>
       </c>
       <c r="R7">
-        <v>89.4162962837017</v>
+        <v>1156.69035745434</v>
       </c>
       <c r="S7">
-        <v>0.00258200421666172</v>
+        <v>0.003361306805949363</v>
       </c>
       <c r="T7">
-        <v>0.00258200421666172</v>
+        <v>0.003361306805949363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H8">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>201.78823665499</v>
+        <v>434.3050438105196</v>
       </c>
       <c r="R8">
-        <v>201.78823665499</v>
+        <v>3908.745394294677</v>
       </c>
       <c r="S8">
-        <v>0.005826880552766593</v>
+        <v>0.01135869458225734</v>
       </c>
       <c r="T8">
-        <v>0.005826880552766593</v>
+        <v>0.01135869458225735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H9">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>3064.82701004643</v>
+        <v>3099.759978047604</v>
       </c>
       <c r="R9">
-        <v>3064.82701004643</v>
+        <v>27897.83980242844</v>
       </c>
       <c r="S9">
-        <v>0.08850060438838625</v>
+        <v>0.08107026932044722</v>
       </c>
       <c r="T9">
-        <v>0.08850060438838625</v>
+        <v>0.08107026932044725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H10">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>2726.686711731935</v>
+        <v>3031.268411217794</v>
       </c>
       <c r="R10">
-        <v>2726.686711731935</v>
+        <v>27281.41570096014</v>
       </c>
       <c r="S10">
-        <v>0.07873639235592682</v>
+        <v>0.07927895973248053</v>
       </c>
       <c r="T10">
-        <v>0.07873639235592682</v>
+        <v>0.07927895973248053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H11">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>3406.495085365204</v>
+        <v>3463.784555660228</v>
       </c>
       <c r="R11">
-        <v>3406.495085365204</v>
+        <v>31174.06100094205</v>
       </c>
       <c r="S11">
-        <v>0.09836668526890882</v>
+        <v>0.09059086793302286</v>
       </c>
       <c r="T11">
-        <v>0.09836668526890882</v>
+        <v>0.09059086793302289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H12">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>1303.010326735128</v>
+        <v>1315.890818272456</v>
       </c>
       <c r="R12">
-        <v>1303.010326735128</v>
+        <v>11843.0173644521</v>
       </c>
       <c r="S12">
-        <v>0.03762600664323319</v>
+        <v>0.03441544628911695</v>
       </c>
       <c r="T12">
-        <v>0.03762600664323319</v>
+        <v>0.03441544628911695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H13">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>829.3605063404234</v>
+        <v>884.2020166274893</v>
       </c>
       <c r="R13">
-        <v>829.3605063404234</v>
+        <v>7957.818149647404</v>
       </c>
       <c r="S13">
-        <v>0.02394879248531341</v>
+        <v>0.02312517618439045</v>
       </c>
       <c r="T13">
-        <v>0.02394879248531341</v>
+        <v>0.02312517618439045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H14">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>131.2699808333307</v>
+        <v>314.9255427681107</v>
       </c>
       <c r="R14">
-        <v>131.2699808333307</v>
+        <v>2834.329884912996</v>
       </c>
       <c r="S14">
-        <v>0.003790580219934061</v>
+        <v>0.008236475968755368</v>
       </c>
       <c r="T14">
-        <v>0.003790580219934061</v>
+        <v>0.008236475968755369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H15">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>1993.772231401876</v>
+        <v>2247.714152643841</v>
       </c>
       <c r="R15">
-        <v>1993.772231401876</v>
+        <v>20229.42737379457</v>
       </c>
       <c r="S15">
-        <v>0.05757259607587915</v>
+        <v>0.05878609731098948</v>
       </c>
       <c r="T15">
-        <v>0.05757259607587915</v>
+        <v>0.05878609731098949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H16">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>1773.800684920637</v>
+        <v>2198.049189811112</v>
       </c>
       <c r="R16">
-        <v>1773.800684920637</v>
+        <v>19782.44270830001</v>
       </c>
       <c r="S16">
-        <v>0.05122065035495482</v>
+        <v>0.0574871735423255</v>
       </c>
       <c r="T16">
-        <v>0.05122065035495482</v>
+        <v>0.05748717354232551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H17">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>2216.038714532608</v>
+        <v>2511.677556521794</v>
       </c>
       <c r="R17">
-        <v>2216.038714532608</v>
+        <v>22605.09800869614</v>
       </c>
       <c r="S17">
-        <v>0.0639908108814361</v>
+        <v>0.06568972352549599</v>
       </c>
       <c r="T17">
-        <v>0.0639908108814361</v>
+        <v>0.065689723525496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H18">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>847.6516939319937</v>
+        <v>954.1856261490387</v>
       </c>
       <c r="R18">
-        <v>847.6516939319937</v>
+        <v>8587.670635341348</v>
       </c>
       <c r="S18">
-        <v>0.02447697275504119</v>
+        <v>0.02495550824626273</v>
       </c>
       <c r="T18">
-        <v>0.02447697275504119</v>
+        <v>0.02495550824626273</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H19">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>539.5266819114483</v>
+        <v>641.1571865708214</v>
       </c>
       <c r="R19">
-        <v>539.5266819114483</v>
+        <v>5770.414679137392</v>
       </c>
       <c r="S19">
-        <v>0.01557948858983086</v>
+        <v>0.01676864859219705</v>
       </c>
       <c r="T19">
-        <v>0.01557948858983086</v>
+        <v>0.01676864859219705</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H20">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>133.7392003343677</v>
+        <v>286.8481266341711</v>
       </c>
       <c r="R20">
-        <v>133.7392003343677</v>
+        <v>2581.63313970754</v>
       </c>
       <c r="S20">
-        <v>0.003861881933698992</v>
+        <v>0.007502146954921705</v>
       </c>
       <c r="T20">
-        <v>0.003861881933698992</v>
+        <v>0.007502146954921707</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H21">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>2031.275560366738</v>
+        <v>2047.317560296309</v>
       </c>
       <c r="R21">
-        <v>2031.275560366738</v>
+        <v>18425.85804266678</v>
       </c>
       <c r="S21">
-        <v>0.05865555027495365</v>
+        <v>0.05354497998978738</v>
       </c>
       <c r="T21">
-        <v>0.05865555027495365</v>
+        <v>0.05354497998978739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H22">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>1807.166296878178</v>
+        <v>2002.080513397213</v>
       </c>
       <c r="R22">
-        <v>1807.166296878178</v>
+        <v>18018.72462057492</v>
       </c>
       <c r="S22">
-        <v>0.05218412294716029</v>
+        <v>0.05236186271575853</v>
       </c>
       <c r="T22">
-        <v>0.05218412294716029</v>
+        <v>0.05236186271575854</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H23">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>2257.722928807952</v>
+        <v>2287.747114650122</v>
       </c>
       <c r="R23">
-        <v>2257.722928807952</v>
+        <v>20589.7240318511</v>
       </c>
       <c r="S23">
-        <v>0.06519449322459289</v>
+        <v>0.05983310838104935</v>
       </c>
       <c r="T23">
-        <v>0.06519449322459289</v>
+        <v>0.05983310838104938</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H24">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>863.5962235148947</v>
+        <v>869.1145116915577</v>
       </c>
       <c r="R24">
-        <v>863.5962235148947</v>
+        <v>7822.030605224019</v>
       </c>
       <c r="S24">
-        <v>0.02493739042303671</v>
+        <v>0.02273058173282264</v>
       </c>
       <c r="T24">
-        <v>0.02493739042303671</v>
+        <v>0.02273058173282264</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H25">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>549.6753068738988</v>
+        <v>583.9943506306755</v>
       </c>
       <c r="R25">
-        <v>549.6753068738988</v>
+        <v>5255.949155676079</v>
       </c>
       <c r="S25">
-        <v>0.01587254246854695</v>
+        <v>0.01527362751391762</v>
       </c>
       <c r="T25">
-        <v>0.01587254246854695</v>
+        <v>0.01527362751391762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H26">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>66.65074468811741</v>
+        <v>145.8096443735291</v>
       </c>
       <c r="R26">
-        <v>66.65074468811741</v>
+        <v>1312.286799361762</v>
       </c>
       <c r="S26">
-        <v>0.001924621248931454</v>
+        <v>0.00381346530782878</v>
       </c>
       <c r="T26">
-        <v>0.001924621248931454</v>
+        <v>0.003813465307828781</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H27">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>1012.313730205737</v>
+        <v>1040.685358099615</v>
       </c>
       <c r="R27">
-        <v>1012.313730205737</v>
+        <v>9366.168222896535</v>
       </c>
       <c r="S27">
-        <v>0.02923178915488357</v>
+        <v>0.02721779842841954</v>
       </c>
       <c r="T27">
-        <v>0.02923178915488357</v>
+        <v>0.02721779842841954</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H28">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>900.6258386550677</v>
+        <v>1017.690619391497</v>
       </c>
       <c r="R28">
-        <v>900.6258386550677</v>
+        <v>9159.215574523476</v>
       </c>
       <c r="S28">
-        <v>0.02600666555975152</v>
+        <v>0.02661640036107802</v>
       </c>
       <c r="T28">
-        <v>0.02600666555975152</v>
+        <v>0.02661640036107803</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H29">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>1125.166848076466</v>
+        <v>1162.899674883092</v>
       </c>
       <c r="R29">
-        <v>1125.166848076466</v>
+        <v>10466.09707394783</v>
       </c>
       <c r="S29">
-        <v>0.03249056007602669</v>
+        <v>0.03041415803258848</v>
       </c>
       <c r="T29">
-        <v>0.03249056007602669</v>
+        <v>0.03041415803258848</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H30">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>430.3848928601848</v>
+        <v>441.7852727734118</v>
       </c>
       <c r="R30">
-        <v>430.3848928601848</v>
+        <v>3976.067454960706</v>
       </c>
       <c r="S30">
-        <v>0.01242788679847225</v>
+        <v>0.0115543304317731</v>
       </c>
       <c r="T30">
-        <v>0.01242788679847225</v>
+        <v>0.0115543304317731</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H31">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>273.9381456462933</v>
+        <v>296.8539818640916</v>
       </c>
       <c r="R31">
-        <v>273.9381456462933</v>
+        <v>2671.685836776824</v>
       </c>
       <c r="S31">
-        <v>0.007910296853708381</v>
+        <v>0.007763837338698446</v>
       </c>
       <c r="T31">
-        <v>0.007910296853708381</v>
+        <v>0.007763837338698446</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H32">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>50.75725630996912</v>
+        <v>112.8689221949647</v>
       </c>
       <c r="R32">
-        <v>50.75725630996912</v>
+        <v>1015.820299754682</v>
       </c>
       <c r="S32">
-        <v>0.001465677457750037</v>
+        <v>0.002951942726229323</v>
       </c>
       <c r="T32">
-        <v>0.001465677457750037</v>
+        <v>0.002951942726229324</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H33">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>770.9181301812822</v>
+        <v>805.5779521132195</v>
       </c>
       <c r="R33">
-        <v>770.9181301812822</v>
+        <v>7250.201569018975</v>
       </c>
       <c r="S33">
-        <v>0.02226119785272139</v>
+        <v>0.02106886404074673</v>
       </c>
       <c r="T33">
-        <v>0.02226119785272139</v>
+        <v>0.02106886404074674</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H34">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>685.8632524798479</v>
+        <v>787.7780913064041</v>
       </c>
       <c r="R34">
-        <v>685.8632524798479</v>
+        <v>7090.002821757636</v>
       </c>
       <c r="S34">
-        <v>0.01980513489775442</v>
+        <v>0.02060333138025219</v>
       </c>
       <c r="T34">
-        <v>0.01980513489775442</v>
+        <v>0.02060333138025219</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H35">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>856.8603751771577</v>
+        <v>900.1821072184035</v>
       </c>
       <c r="R35">
-        <v>856.8603751771577</v>
+        <v>8101.638964965631</v>
       </c>
       <c r="S35">
-        <v>0.02474288461667174</v>
+        <v>0.02354311507551277</v>
       </c>
       <c r="T35">
-        <v>0.02474288461667174</v>
+        <v>0.02354311507551277</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H36">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>327.7556225525201</v>
+        <v>341.9789396907407</v>
       </c>
       <c r="R36">
-        <v>327.7556225525201</v>
+        <v>3077.810457216666</v>
       </c>
       <c r="S36">
-        <v>0.009464341900050795</v>
+        <v>0.008944023065976742</v>
       </c>
       <c r="T36">
-        <v>0.009464341900050795</v>
+        <v>0.008944023065976742</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H37">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>208.6150535408113</v>
+        <v>229.7899369156294</v>
       </c>
       <c r="R37">
-        <v>208.6150535408113</v>
+        <v>2068.109432240664</v>
       </c>
       <c r="S37">
-        <v>0.006024013186505317</v>
+        <v>0.006009862765120376</v>
       </c>
       <c r="T37">
-        <v>0.006024013186505317</v>
+        <v>0.006009862765120376</v>
       </c>
     </row>
   </sheetData>
